--- a/7/1/1/5/1/Principales agregados macroeconómicos 1996 a 2021 - Trimestral.xlsx
+++ b/7/1/1/5/1/Principales agregados macroeconómicos 1996 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Serie</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4865,40 +4868,81 @@
         <v>113</v>
       </c>
       <c r="B102">
-        <v>56205</v>
+        <v>56433</v>
       </c>
       <c r="C102">
-        <v>1598</v>
+        <v>1632</v>
       </c>
       <c r="D102">
-        <v>4382</v>
+        <v>4771</v>
       </c>
       <c r="E102">
-        <v>53421</v>
+        <v>53294</v>
       </c>
       <c r="F102">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="G102">
-        <v>831</v>
+        <v>806</v>
       </c>
       <c r="H102">
-        <v>53398</v>
+        <v>53283</v>
       </c>
       <c r="I102">
-        <v>41095</v>
+        <v>41167</v>
       </c>
       <c r="J102">
-        <v>12302</v>
+        <v>12116</v>
       </c>
       <c r="K102">
-        <v>1127</v>
+        <v>1333</v>
       </c>
       <c r="L102">
-        <v>13429</v>
+        <v>13449</v>
       </c>
       <c r="M102">
-        <v>10735</v>
+        <v>10810</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103">
+        <v>57427</v>
+      </c>
+      <c r="C103">
+        <v>1666</v>
+      </c>
+      <c r="D103">
+        <v>5187</v>
+      </c>
+      <c r="E103">
+        <v>53905</v>
+      </c>
+      <c r="F103">
+        <v>960</v>
+      </c>
+      <c r="G103">
+        <v>925</v>
+      </c>
+      <c r="H103">
+        <v>53940</v>
+      </c>
+      <c r="I103">
+        <v>43315</v>
+      </c>
+      <c r="J103">
+        <v>10625</v>
+      </c>
+      <c r="K103">
+        <v>1895</v>
+      </c>
+      <c r="L103">
+        <v>12521</v>
+      </c>
+      <c r="M103">
+        <v>11578</v>
       </c>
     </row>
   </sheetData>
